--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>122766.3578434586</v>
+        <v>119564.0088247092</v>
       </c>
     </row>
     <row r="7">
@@ -26332,7 +26332,7 @@
         <v>120036.5755573568</v>
       </c>
       <c r="I2" t="n">
-        <v>120036.5755573568</v>
+        <v>120036.5755573567</v>
       </c>
       <c r="J2" t="n">
         <v>120036.5755573568</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106980.0603174001</v>
+        <v>107507.4055314464</v>
       </c>
       <c r="C4" t="n">
-        <v>106980.0603174001</v>
+        <v>107507.4055314464</v>
       </c>
       <c r="D4" t="n">
-        <v>106980.0603174001</v>
+        <v>107507.4055314464</v>
       </c>
       <c r="E4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="F4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="G4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="H4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="I4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="J4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="K4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="L4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="M4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="N4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="O4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="P4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-27724.88450938137</v>
+        <v>-28252.22972342771</v>
       </c>
       <c r="C6" t="n">
-        <v>-27724.88450938137</v>
+        <v>-28252.22972342771</v>
       </c>
       <c r="D6" t="n">
-        <v>-27724.88450938137</v>
+        <v>-28252.22972342771</v>
       </c>
       <c r="E6" t="n">
-        <v>-80071.96907226059</v>
+        <v>-80384.47655125131</v>
       </c>
       <c r="F6" t="n">
-        <v>53028.03092773946</v>
+        <v>52715.52344874869</v>
       </c>
       <c r="G6" t="n">
-        <v>53028.03092773946</v>
+        <v>52715.52344874869</v>
       </c>
       <c r="H6" t="n">
-        <v>53028.03092773946</v>
+        <v>52715.52344874869</v>
       </c>
       <c r="I6" t="n">
-        <v>53028.03092773946</v>
+        <v>52715.52344874867</v>
       </c>
       <c r="J6" t="n">
-        <v>53028.03092773946</v>
+        <v>52715.52344874869</v>
       </c>
       <c r="K6" t="n">
-        <v>53028.03092773946</v>
+        <v>52715.52344874869</v>
       </c>
       <c r="L6" t="n">
-        <v>53028.03092773946</v>
+        <v>52715.52344874869</v>
       </c>
       <c r="M6" t="n">
-        <v>53028.03092773946</v>
+        <v>52715.52344874869</v>
       </c>
       <c r="N6" t="n">
-        <v>53028.03092773946</v>
+        <v>52715.52344874869</v>
       </c>
       <c r="O6" t="n">
-        <v>53028.03092773946</v>
+        <v>52715.52344874869</v>
       </c>
       <c r="P6" t="n">
-        <v>53028.03092773946</v>
+        <v>52715.52344874869</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119564.0088247092</v>
+        <v>133290.3669621273</v>
       </c>
     </row>
     <row r="7">
@@ -26332,7 +26334,7 @@
         <v>120036.5755573568</v>
       </c>
       <c r="I2" t="n">
-        <v>120036.5755573567</v>
+        <v>120036.5755573568</v>
       </c>
       <c r="J2" t="n">
         <v>120036.5755573568</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,40 +26530,40 @@
         <v>-28252.22972342771</v>
       </c>
       <c r="E6" t="n">
-        <v>-80384.47655125131</v>
+        <v>-80384.47655125137</v>
       </c>
       <c r="F6" t="n">
-        <v>52715.52344874869</v>
+        <v>52715.52344874868</v>
       </c>
       <c r="G6" t="n">
-        <v>52715.52344874869</v>
+        <v>52715.52344874868</v>
       </c>
       <c r="H6" t="n">
-        <v>52715.52344874869</v>
+        <v>52715.52344874868</v>
       </c>
       <c r="I6" t="n">
-        <v>52715.52344874867</v>
+        <v>52715.52344874868</v>
       </c>
       <c r="J6" t="n">
-        <v>52715.52344874869</v>
+        <v>52715.52344874868</v>
       </c>
       <c r="K6" t="n">
-        <v>52715.52344874869</v>
+        <v>52715.52344874868</v>
       </c>
       <c r="L6" t="n">
-        <v>52715.52344874869</v>
+        <v>52715.52344874868</v>
       </c>
       <c r="M6" t="n">
-        <v>52715.52344874869</v>
+        <v>52715.52344874868</v>
       </c>
       <c r="N6" t="n">
-        <v>52715.52344874869</v>
+        <v>52715.52344874868</v>
       </c>
       <c r="O6" t="n">
-        <v>52715.52344874869</v>
+        <v>52715.52344874868</v>
       </c>
       <c r="P6" t="n">
-        <v>52715.52344874869</v>
+        <v>52715.52344874868</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133290.3669621273</v>
+        <v>8180.468164650636</v>
       </c>
     </row>
     <row r="7">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28252.22972342771</v>
+        <v>-43402.90369346247</v>
       </c>
       <c r="C6" t="n">
-        <v>-28252.22972342771</v>
+        <v>-43402.90369346245</v>
       </c>
       <c r="D6" t="n">
-        <v>-28252.22972342771</v>
+        <v>-43402.90369346247</v>
       </c>
       <c r="E6" t="n">
-        <v>-80384.47655125137</v>
+        <v>-95194.49339036527</v>
       </c>
       <c r="F6" t="n">
-        <v>52715.52344874868</v>
+        <v>37905.50660963477</v>
       </c>
       <c r="G6" t="n">
-        <v>52715.52344874868</v>
+        <v>37905.50660963477</v>
       </c>
       <c r="H6" t="n">
-        <v>52715.52344874868</v>
+        <v>37905.50660963477</v>
       </c>
       <c r="I6" t="n">
-        <v>52715.52344874868</v>
+        <v>37905.50660963477</v>
       </c>
       <c r="J6" t="n">
-        <v>52715.52344874868</v>
+        <v>37905.50660963477</v>
       </c>
       <c r="K6" t="n">
-        <v>52715.52344874868</v>
+        <v>37905.50660963477</v>
       </c>
       <c r="L6" t="n">
-        <v>52715.52344874868</v>
+        <v>37905.50660963477</v>
       </c>
       <c r="M6" t="n">
-        <v>52715.52344874868</v>
+        <v>37905.50660963477</v>
       </c>
       <c r="N6" t="n">
-        <v>52715.52344874868</v>
+        <v>37905.50660963477</v>
       </c>
       <c r="O6" t="n">
-        <v>52715.52344874868</v>
+        <v>37905.50660963477</v>
       </c>
       <c r="P6" t="n">
-        <v>52715.52344874868</v>
+        <v>37905.50660963477</v>
       </c>
     </row>
   </sheetData>
